--- a/MainTop/08.01.2026 Макс ВБ/печать_print_sorted.xlsx
+++ b/MainTop/08.01.2026 Макс ВБ/печать_print_sorted.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\07.01.2026 Макс ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\08.01.2026 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F1356-0EAA-4DFF-AB28-73DA8213073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA8AEF-1632-48BC-A39E-ACEF1D61F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>Артикул</t>
   </si>
@@ -200,6 +211,9 @@
   </si>
   <si>
     <t>Термобирки Гарри Поттер</t>
+  </si>
+  <si>
+    <t>город</t>
   </si>
 </sst>
 </file>
@@ -240,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,17 +277,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +615,7 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,8 +628,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -614,8 +645,12 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>B2/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,8 +663,12 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E53" si="0">B3/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -642,8 +681,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -656,8 +699,12 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,8 +717,12 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -684,8 +735,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -698,8 +753,12 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -712,8 +771,12 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -726,8 +789,12 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -740,8 +807,12 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -754,8 +825,12 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -768,8 +843,12 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -782,8 +861,12 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -796,8 +879,12 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -810,8 +897,12 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -824,8 +915,12 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -838,8 +933,12 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -852,8 +951,12 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -866,8 +969,12 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -880,8 +987,12 @@
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -894,8 +1005,12 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -908,8 +1023,12 @@
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -922,8 +1041,12 @@
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -936,8 +1059,12 @@
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -950,8 +1077,12 @@
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -964,8 +1095,12 @@
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -978,8 +1113,12 @@
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -992,8 +1131,12 @@
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1006,8 +1149,12 @@
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1020,8 +1167,12 @@
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1034,8 +1185,12 @@
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1048,8 +1203,12 @@
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1062,8 +1221,12 @@
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1076,8 +1239,12 @@
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1090,8 +1257,12 @@
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1104,8 +1275,12 @@
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1118,8 +1293,12 @@
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1132,8 +1311,12 @@
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1146,8 +1329,12 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -1160,8 +1347,12 @@
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -1174,8 +1365,12 @@
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -1188,8 +1383,12 @@
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -1202,8 +1401,12 @@
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -1216,8 +1419,12 @@
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
@@ -1230,8 +1437,12 @@
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -1244,8 +1455,12 @@
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -1258,8 +1473,12 @@
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -1272,8 +1491,12 @@
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -1286,8 +1509,12 @@
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -1300,8 +1527,12 @@
       <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -1314,8 +1545,12 @@
       <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -1327,6 +1562,10 @@
       </c>
       <c r="D53" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
